--- a/uas4gis/ref/สำรวจข้อมูล ขรก.รร.นนก. (อ.อวย)(1).xlsx
+++ b/uas4gis/ref/สำรวจข้อมูล ขรก.รร.นนก. (อ.อวย)(1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaloemphol\Documents\Projects\aj\uas4gis\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{245FAF75-E141-405C-8BC7-D784507A4CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D15C4B0-C320-42FE-A041-759684270A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="23" xr2:uid="{052EE59E-A11D-4749-AEED-9BE2A2468492}"/>
+    <workbookView xWindow="3323" yWindow="503" windowWidth="13680" windowHeight="11107" firstSheet="15" activeTab="25" xr2:uid="{052EE59E-A11D-4749-AEED-9BE2A2468492}"/>
   </bookViews>
   <sheets>
     <sheet name="บก." sheetId="1" r:id="rId1"/>
@@ -7021,16 +7021,16 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="5" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="5" width="18.1328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7306,21 +7306,21 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="1"/>
     <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6">
+    <row r="1" spans="1:9" ht="20.65">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -7333,7 +7333,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.6">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.65">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.6">
+    <row r="3" spans="1:9" ht="20.65">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="24.6">
+    <row r="4" spans="1:9" ht="20.65">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="24.6">
+    <row r="5" spans="1:9" ht="20.65">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -7443,7 +7443,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="24.6">
+    <row r="6" spans="1:9" ht="20.65">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -7486,18 +7486,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.53125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="35.46484375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="25.46484375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -7828,18 +7828,18 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
     <col min="3" max="3" width="12.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="50.1328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -8252,17 +8252,17 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="13" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="17" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -9583,18 +9583,18 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
     <col min="3" max="3" width="12.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="64.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="30" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -10380,18 +10380,18 @@
       <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="16.86328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="58" style="13" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -13656,21 +13656,21 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="24" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -13683,7 +13683,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -14074,20 +14074,20 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="17" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="17" customWidth="1"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="48.46484375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="24.53125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -14100,7 +14100,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -14654,21 +14654,21 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
     <col min="3" max="3" width="13.33203125" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="61.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="61.86328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -14681,7 +14681,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -15212,18 +15212,18 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="39.109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.1328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="39.1328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26.46484375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15820,16 +15820,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="13" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
     <col min="8" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -16077,20 +16077,20 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="32.53125" style="13" customWidth="1"/>
     <col min="6" max="6" width="31" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -16103,7 +16103,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -16747,21 +16747,21 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="3" width="13.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="3" width="13.1328125" style="13" customWidth="1"/>
     <col min="4" max="4" width="13" style="13" customWidth="1"/>
     <col min="5" max="5" width="34" style="13" customWidth="1"/>
-    <col min="6" max="6" width="26.109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26.1328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -16774,7 +16774,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -17252,20 +17252,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.46484375" style="13" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -17278,7 +17278,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -17307,7 +17307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="22.9">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -17334,7 +17334,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="27">
+    <row r="4" spans="1:9" ht="22.9">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -17361,7 +17361,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="27">
+    <row r="5" spans="1:9" ht="22.9">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -17388,7 +17388,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="27">
+    <row r="6" spans="1:9" ht="22.9">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="27">
+    <row r="7" spans="1:9" ht="22.9">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -17442,7 +17442,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="27">
+    <row r="8" spans="1:9" ht="22.9">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="27">
+    <row r="9" spans="1:9" ht="22.9">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -17496,7 +17496,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="22.9">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="27">
+    <row r="11" spans="1:9" ht="22.9">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="27">
+    <row r="12" spans="1:9" ht="22.9">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -17577,7 +17577,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="27">
+    <row r="13" spans="1:9" ht="22.9">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -17604,7 +17604,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="27">
+    <row r="14" spans="1:9" ht="22.9">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="27">
+    <row r="15" spans="1:9" ht="22.9">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="27">
+    <row r="16" spans="1:9" ht="22.9">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="22.9">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="27">
+    <row r="18" spans="1:9" ht="22.9">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -17739,7 +17739,7 @@
       </c>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="27">
+    <row r="19" spans="1:9" ht="22.9">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -17766,7 +17766,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="27">
+    <row r="20" spans="1:9" ht="22.9">
       <c r="A20" s="18">
         <v>18</v>
       </c>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="27">
+    <row r="21" spans="1:9" ht="22.9">
       <c r="A21" s="18">
         <v>19</v>
       </c>
@@ -17836,20 +17836,20 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="27.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:9" ht="22.9">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" s="17" customFormat="1" ht="27">
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.9">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -17891,7 +17891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27">
+    <row r="3" spans="1:9" ht="22.9">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -17918,7 +17918,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="27">
+    <row r="4" spans="1:9" ht="22.9">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -17945,7 +17945,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="27">
+    <row r="5" spans="1:9" ht="22.9">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -17972,7 +17972,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="27">
+    <row r="6" spans="1:9" ht="22.9">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -17999,7 +17999,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="27">
+    <row r="7" spans="1:9" ht="22.9">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -18026,7 +18026,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="27">
+    <row r="8" spans="1:9" ht="22.9">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="27">
+    <row r="9" spans="1:9" ht="22.9">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -18080,7 +18080,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="27">
+    <row r="10" spans="1:9" ht="22.9">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="27">
+    <row r="11" spans="1:9" ht="22.9">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="27">
+    <row r="12" spans="1:9" ht="22.9">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -18161,7 +18161,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="27">
+    <row r="13" spans="1:9" ht="22.9">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" ht="27">
+    <row r="14" spans="1:9" ht="22.9">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -18215,7 +18215,7 @@
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="27">
+    <row r="15" spans="1:9" ht="22.9">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -18242,7 +18242,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="27">
+    <row r="16" spans="1:9" ht="22.9">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -18269,7 +18269,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="27">
+    <row r="17" spans="1:9" ht="22.9">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -18362,24 +18362,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024FAB30-419A-480C-B4F2-69DAC7D1A8B0}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.53125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6">
+    <row r="1" spans="1:9" ht="20.65">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -18392,7 +18392,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.6">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.65">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -18421,7 +18421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.6">
+    <row r="3" spans="1:9" ht="20.65">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -18450,7 +18450,7 @@
         <v>48750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="24.6">
+    <row r="4" spans="1:9" ht="20.65">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -18477,7 +18477,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="24.6">
+    <row r="5" spans="1:9" ht="20.65">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -18504,7 +18504,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="24.6">
+    <row r="6" spans="1:9" ht="20.65">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -18531,7 +18531,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6">
+    <row r="7" spans="1:9" ht="20.65">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -18558,7 +18558,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6">
+    <row r="8" spans="1:9" ht="20.65">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -18585,7 +18585,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6">
+    <row r="9" spans="1:9" ht="20.65">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -18612,7 +18612,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6">
+    <row r="10" spans="1:9" ht="20.65">
       <c r="A10" s="18">
         <v>8</v>
       </c>
@@ -18639,7 +18639,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:9" ht="24.6">
+    <row r="11" spans="1:9" ht="20.65">
       <c r="A11" s="18">
         <v>9</v>
       </c>
@@ -18666,7 +18666,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:9" ht="24.6">
+    <row r="12" spans="1:9" ht="20.65">
       <c r="A12" s="18">
         <v>10</v>
       </c>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="24.6">
+    <row r="13" spans="1:9" ht="20.65">
       <c r="A13" s="18">
         <v>11</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24.6">
+    <row r="14" spans="1:9" ht="20.65">
       <c r="A14" s="18">
         <v>12</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="24.6">
+    <row r="15" spans="1:9" ht="20.65">
       <c r="A15" s="18">
         <v>13</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="24.6">
+    <row r="16" spans="1:9" ht="20.65">
       <c r="A16" s="18">
         <v>14</v>
       </c>
@@ -18809,7 +18809,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="24.6">
+    <row r="17" spans="1:9" ht="20.65">
       <c r="A17" s="18">
         <v>15</v>
       </c>
@@ -18838,7 +18838,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="24.6">
+    <row r="18" spans="1:9" ht="20.65">
       <c r="A18" s="18">
         <v>16</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>48752</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="24.6">
+    <row r="19" spans="1:9" ht="20.65">
       <c r="A19" s="18">
         <v>17</v>
       </c>
@@ -18912,16 +18912,16 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="5" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="5" width="18.1328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="22.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -19086,22 +19086,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBDAFB86-A4A1-4192-9F83-739B075ABF70}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.1328125" style="13" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -19941,17 +19941,17 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="40" style="13" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="17" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -20739,17 +20739,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
-    <col min="3" max="4" width="18.109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
+    <col min="3" max="4" width="18.1328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="40" style="13" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="24.46484375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="17" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -21130,18 +21130,18 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="10.86328125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="57.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="57.86328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22332,18 +22332,18 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" style="13" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22620,18 +22620,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="22.9"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="22" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="22" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" style="21" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27.53125" style="21" customWidth="1"/>
     <col min="6" max="6" width="26.6640625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="21" customWidth="1"/>
     <col min="8" max="8" width="22" style="21" customWidth="1"/>
     <col min="9" max="9" width="19" style="21" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="21"/>
+    <col min="10" max="16384" width="8.86328125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22773,17 +22773,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="13" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="35.33203125" style="13" customWidth="1"/>
     <col min="6" max="6" width="27.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -22979,18 +22979,18 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.86328125" style="13" customWidth="1"/>
     <col min="5" max="5" width="46.6640625" style="13" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
     <col min="8" max="8" width="18" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -23320,21 +23320,21 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -23347,7 +23347,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="24.6">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20.65">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
@@ -23376,7 +23376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.6">
+    <row r="3" spans="1:9" ht="20.65">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -23403,7 +23403,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="24.6">
+    <row r="4" spans="1:9" ht="20.65">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -23430,7 +23430,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="24.6">
+    <row r="5" spans="1:9" ht="20.65">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -23457,7 +23457,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="24.6">
+    <row r="6" spans="1:9" ht="20.65">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -23484,7 +23484,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6">
+    <row r="7" spans="1:9" ht="20.65">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -23511,7 +23511,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6">
+    <row r="8" spans="1:9" ht="20.65">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -23538,7 +23538,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6">
+    <row r="9" spans="1:9" ht="20.65">
       <c r="A9" s="18">
         <v>7</v>
       </c>
@@ -23579,21 +23579,21 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.53125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="1"/>
     <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.8">
+    <row r="1" spans="1:9" ht="22.5">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -23606,7 +23606,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="22.8">
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="22.5">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -23635,7 +23635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.6">
+    <row r="3" spans="1:9" ht="20.65">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -23662,7 +23662,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="24.6">
+    <row r="4" spans="1:9" ht="20.65">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:9" ht="24.6">
+    <row r="5" spans="1:9" ht="20.65">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -23716,7 +23716,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="24.6">
+    <row r="6" spans="1:9" ht="20.65">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -23743,7 +23743,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" ht="24.6">
+    <row r="7" spans="1:9" ht="20.65">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" ht="24.6">
+    <row r="8" spans="1:9" ht="20.65">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -23797,7 +23797,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" ht="24.6">
+    <row r="9" spans="1:9" ht="20.65">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -23824,7 +23824,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="24.6">
+    <row r="10" spans="1:9" ht="20.65">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -23865,18 +23865,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="24.6"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="20.65"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="7.53125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" style="13"/>
     <col min="3" max="3" width="12.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="18.1328125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="43.1328125" style="13" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.86328125" style="13" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" style="13" customWidth="1"/>
     <col min="9" max="9" width="19" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="10" max="16384" width="8.86328125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
